--- a/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +672,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 4,16</t>
+          <t>-7,23; 4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 5,07</t>
+          <t>-6,89; 4,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,59</t>
+          <t>-7,49; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 1,55</t>
+          <t>-9,58; 1,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 6,91</t>
+          <t>-4,81; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 8,5</t>
+          <t>-4,78; 9,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 7,9</t>
+          <t>-11,22; 7,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 2,73</t>
+          <t>-10,47; 7,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 7,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 2,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 10,31</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 17,98</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-12,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 5,66</t>
+          <t>-8,39; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -3,66</t>
+          <t>-14,36; -2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 0,46</t>
+          <t>-11,47; 0,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 5,78</t>
+          <t>-13,63; 7,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 9,25</t>
+          <t>-14,68; 2,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -5,31</t>
+          <t>-15,68; -0,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 0,73</t>
+          <t>-12,16; 9,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 10,27</t>
+          <t>-19,82; -4,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 1,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 13,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 4,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,36; -1,24</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-9,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-16,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 8,34</t>
+          <t>-14,42; 13,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 7,21</t>
+          <t>-18,67; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 2,25</t>
+          <t>-23,76; -1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 11,56</t>
+          <t>-10,91; 20,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 2,15</t>
+          <t>-18,94; 21,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-26,16; 10,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,26; -2,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; 40,89</t>
         </is>
       </c>
     </row>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +1092,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-7,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,0</t>
+          <t>-5,9; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,77</t>
+          <t>-8,33; -0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -0,56</t>
+          <t>-8,38; -0,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 0,49</t>
+          <t>-8,64; 0,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 3,14</t>
+          <t>-5,34; 3,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,17</t>
+          <t>-7,34; 2,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -0,9</t>
+          <t>-8,82; 4,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,8</t>
+          <t>-12,33; -1,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; -0,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 0,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,93; 6,77</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 4,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-2,8%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-7,18%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.924442951751526</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.206713781169244</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.50387245671626</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.241916491365094</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3849379350461368</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.418796278879953</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.03097595824865164</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.019423320602581</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.02493649626722201</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.07181017013941936</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.007049904812553657</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.04191502841227238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 4,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 4,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 4,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,58; 1,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; 5,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 9,33</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 7,65</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 7,8</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 7,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 2,68</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 10,31</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 17,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.921772684492264</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.269371693420849</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.196644117800073</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.579942931855014</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.824301706461894</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.235963008239222</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.121062444447804</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.109488479623654</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1134491838361515</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1543638086318211</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.0827189804079743</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.06679175532939177</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.325293617748095</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.219142625659192</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.677425242494606</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.325456762712737</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.298131029309348</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.650471669218842</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.07231734757203814</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.07298515942415681</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.0823533225682585</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.02677018052480415</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1021996122987899</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1903935317806772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,06</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,59</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,37</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-12,53%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-7,73%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-6,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-8,32%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-13,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 5,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; -2,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 0,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,63; 7,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 2,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; -0,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 9,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,82; -4,45</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-16,46; 1,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-20,34; 13,47</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-20,82; 4,56</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-23,36; -1,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.7006327372511834</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.226254607600248</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.667029192692485</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.940210377076825</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-5.51847065641986</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-7.910952244957425</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01102327405456422</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1311678079828346</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.07171697547630264</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.06329630113838189</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.08230931888708365</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.1251213552177913</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-12,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-9,67%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-16,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.567275651745431</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.10831229282863</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.03558908428255</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.63488991804828</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-14.5339954712638</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-14.9718153561721</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1240739221606303</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2073916115203093</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1610229482130247</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2034473461692753</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2083582721381317</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2253069408950834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 13,24</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; 6,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,76; -1,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 20,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 21,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-26,16; 10,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-30,26; -2,54</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-15,89; 40,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.220196644557873</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-3.308517420098294</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.485740686310407</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.931361486416777</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.126788499681424</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.3354856683316833</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1036276288977113</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.05133081493447209</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.02159626093659919</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1346722168793015</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0464375748786606</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.007195738456299321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-7,27%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-6,91%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-7,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.290141924344137</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.997209307297647</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-11.66384935419645</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>3.303609273284291</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.06144393824070798</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.09260095707140005</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1603601742522648</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.05194063014264828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 2,52</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; -0,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; -0,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 0,51</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 3,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 2,3</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 4,13</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-12,33; -1,23</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; -0,43</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; 0,85</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-8,93; 6,77</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-11,3; 4,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.34537876355633</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.23835283892841</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.28995390493455</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-9.955135396022717</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2271444948682802</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2551982425081729</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2953004097750547</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.1428258538595298</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.15120021144572</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.128996657977003</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.7407029125986097</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>21.6016219492986</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.178779987073952</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1022567213792335</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.007792806309527429</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.4359226092785025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.786063778608993</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.986899953236246</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-4.074905440096755</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.250427642113152</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.16255245562773</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.60221444689288</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.02807776354982939</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07585404535136346</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.0639240836289863</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.07103735715970683</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.02018380926818163</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.02642054674610643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.422928876560333</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.597554728252415</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.913172752516958</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.638956330894414</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.339549700529486</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.829720898754575</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.0961772735079026</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1264284909479078</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1208170263534234</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1393486891305378</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.0888854405437574</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1057226631239701</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.387418349327314</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.9390590027435823</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.09924416414658979</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5117527818939521</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.715805934607527</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.806361683676548</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.04051475413666026</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.01592170719753412</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.001407627191664244</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.008512018341881592</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.06723351826691705</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.04835390697204448</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
